--- a/svmx/test_lab/test_cases/analytics/an_excleData/MTTC_data.xlsx
+++ b/svmx/test_lab/test_cases/analytics/an_excleData/MTTC_data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="54">
   <si>
     <t>Account</t>
   </si>
@@ -77,9 +77,6 @@
     <t>ScheduledDate</t>
   </si>
   <si>
-    <t>a0Nq0000003PBZS</t>
-  </si>
-  <si>
     <t>Closed</t>
   </si>
   <si>
@@ -168,6 +165,30 @@
   </si>
   <si>
     <t>a1Oq0000000KAFxEAO</t>
+  </si>
+  <si>
+    <t>closedon</t>
+  </si>
+  <si>
+    <t>Site</t>
+  </si>
+  <si>
+    <t>a1Zq0000001jyS9</t>
+  </si>
+  <si>
+    <t>2017-09-21 10:00:00</t>
+  </si>
+  <si>
+    <t>2017-09-21 13:00:00</t>
+  </si>
+  <si>
+    <t>WDStartDate1</t>
+  </si>
+  <si>
+    <t>WDEndDate1</t>
+  </si>
+  <si>
+    <t>a0Nq0000003PK1qEAG</t>
   </si>
 </sst>
 </file>
@@ -229,7 +250,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="35">
+  <cellStyleXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -265,8 +286,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -289,8 +316,14 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="35">
+  <cellStyles count="41">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -308,6 +341,9 @@
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -325,6 +361,9 @@
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -600,14 +639,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="3" max="3" width="38.83203125" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
     <col min="7" max="7" width="38" customWidth="1"/>
     <col min="11" max="11" width="22.33203125" customWidth="1"/>
@@ -616,9 +656,11 @@
     <col min="14" max="14" width="11.5" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="23.83203125" customWidth="1"/>
     <col min="20" max="20" width="24.33203125" customWidth="1"/>
+    <col min="23" max="23" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="19.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -635,7 +677,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -650,7 +692,7 @@
         <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>9</v>
@@ -674,48 +716,63 @@
         <v>15</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>44</v>
+      <c r="U1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="X1" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y1" s="8" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="128" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" ht="128" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="M2" s="7">
         <v>43020.416666666664</v>
@@ -724,10 +781,10 @@
         <v>43020.458333333336</v>
       </c>
       <c r="O2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="Q2" s="1">
         <v>30</v>
@@ -736,24 +793,39 @@
         <v>42999</v>
       </c>
       <c r="S2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W2" s="4">
+        <v>42999</v>
+      </c>
+      <c r="X2" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y2" s="9" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="112" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" ht="112" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -762,10 +834,10 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -774,9 +846,9 @@
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
     </row>
-    <row r="4" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -796,36 +868,36 @@
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
     </row>
-    <row r="5" spans="1:20" ht="112" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" ht="112" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M5" s="5">
         <v>43020.416666666664</v>
@@ -838,7 +910,7 @@
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
     </row>
-    <row r="6" spans="1:20" ht="128" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" ht="128" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -849,7 +921,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>

--- a/svmx/test_lab/test_cases/analytics/an_excleData/MTTC_data.xlsx
+++ b/svmx/test_lab/test_cases/analytics/an_excleData/MTTC_data.xlsx
@@ -188,7 +188,7 @@
     <t>WDEndDate1</t>
   </si>
   <si>
-    <t>a0Nq0000003PK1qEAG</t>
+    <t>a0Nq0000003PKUcEAO</t>
   </si>
 </sst>
 </file>
@@ -642,7 +642,7 @@
   <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/svmx/test_lab/test_cases/analytics/an_excleData/MTTC_data.xlsx
+++ b/svmx/test_lab/test_cases/analytics/an_excleData/MTTC_data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="58">
   <si>
     <t>Account</t>
   </si>
@@ -131,9 +131,6 @@
     <t>Case case_2 = new Case (Status = 'Closed' );insert case_2 ;</t>
   </si>
   <si>
-    <t>Case case_3= new Case (Status = 'Closed',Origin='Phone' );insert case_3 ;</t>
-  </si>
-  <si>
     <t>ClosedOn1</t>
   </si>
   <si>
@@ -189,6 +186,21 @@
   </si>
   <si>
     <t>a0Nq0000003PKUcEAO</t>
+  </si>
+  <si>
+    <t>0010U000003ExLVQA0</t>
+  </si>
+  <si>
+    <t>01t0U0000001rgjQAA</t>
+  </si>
+  <si>
+    <t>a0N0U0000009ZIRUA2</t>
+  </si>
+  <si>
+    <t>PreferredStartDate</t>
+  </si>
+  <si>
+    <t>PreferredEndDate</t>
   </si>
 </sst>
 </file>
@@ -250,8 +262,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="41">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -323,7 +345,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="41">
+  <cellStyles count="51">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -344,6 +366,11 @@
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -364,6 +391,11 @@
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -639,15 +671,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y6"/>
+  <dimension ref="A1:AA6"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="38.83203125" customWidth="1"/>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" customWidth="1"/>
+    <col min="3" max="3" width="27.1640625" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
     <col min="7" max="7" width="38" customWidth="1"/>
     <col min="11" max="11" width="22.33203125" customWidth="1"/>
@@ -656,11 +691,14 @@
     <col min="14" max="14" width="11.5" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="23.83203125" customWidth="1"/>
     <col min="20" max="20" width="24.33203125" customWidth="1"/>
+    <col min="21" max="21" width="13.83203125" customWidth="1"/>
     <col min="23" max="23" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="24" max="25" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="23.83203125" customWidth="1"/>
+    <col min="27" max="27" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -677,7 +715,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -692,7 +730,7 @@
         <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>9</v>
@@ -716,48 +754,54 @@
         <v>15</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="U1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="X1" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y1" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="Y1" s="8" t="s">
-        <v>52</v>
+      <c r="Z1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="128" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" ht="128" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>17</v>
@@ -769,7 +813,7 @@
         <v>19</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>20</v>
@@ -793,28 +837,28 @@
         <v>42999</v>
       </c>
       <c r="S2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="W2" s="4">
         <v>42999</v>
       </c>
       <c r="X2" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y2" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="Y2" s="9" t="s">
-        <v>50</v>
-      </c>
     </row>
-    <row r="3" spans="1:25" ht="112" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" ht="112" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
@@ -846,7 +890,7 @@
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
     </row>
-    <row r="4" spans="1:25" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
@@ -868,7 +912,7 @@
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
     </row>
-    <row r="5" spans="1:25" ht="112" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" ht="112" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
@@ -883,10 +927,10 @@
         <v>16</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>17</v>
@@ -910,19 +954,25 @@
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
     </row>
-    <row r="6" spans="1:25" ht="128" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="2"/>
@@ -931,6 +981,12 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
+      <c r="Z6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/svmx/test_lab/test_cases/analytics/an_excleData/MTTC_data.xlsx
+++ b/svmx/test_lab/test_cases/analytics/an_excleData/MTTC_data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="57">
   <si>
     <t>Account</t>
   </si>
@@ -188,19 +188,16 @@
     <t>a0Nq0000003PKUcEAO</t>
   </si>
   <si>
-    <t>0010U000003ExLVQA0</t>
-  </si>
-  <si>
-    <t>01t0U0000001rgjQAA</t>
-  </si>
-  <si>
-    <t>a0N0U0000009ZIRUA2</t>
-  </si>
-  <si>
     <t>PreferredStartDate</t>
   </si>
   <si>
     <t>PreferredEndDate</t>
+  </si>
+  <si>
+    <t>a0Nq0000003PKUhEAO</t>
+  </si>
+  <si>
+    <t>a0Nq0000003PV38EAG</t>
   </si>
 </sst>
 </file>
@@ -262,8 +259,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -345,7 +356,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="65">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -371,6 +382,13 @@
     <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -396,6 +414,13 @@
     <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -674,7 +699,7 @@
   <dimension ref="A1:AA6"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -775,10 +800,10 @@
         <v>51</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="128" x14ac:dyDescent="0.2">
@@ -896,7 +921,9 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -955,21 +982,19 @@
       <c r="R5" s="1"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>

--- a/svmx/test_lab/test_cases/analytics/an_excleData/MTTC_data.xlsx
+++ b/svmx/test_lab/test_cases/analytics/an_excleData/MTTC_data.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27809"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/auto/sahi_pro/userdata/scripts/Sahi_Project/svmx/test_lab/test_cases/analytics/an_excleData/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16580" tabRatio="500"/>
+    <workbookView xWindow="140" yWindow="-18160" windowWidth="28800" windowHeight="16580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="64">
   <si>
     <t>Account</t>
   </si>
@@ -98,36 +98,12 @@
     <t>Estimate</t>
   </si>
   <si>
-    <t>001q000000hmfgoAAA</t>
-  </si>
-  <si>
-    <t>a1Jq0000001faAI</t>
-  </si>
-  <si>
-    <t>01tq0000001jhI0</t>
-  </si>
-  <si>
-    <t>a0Nq0000003PBEa</t>
-  </si>
-  <si>
-    <t>a1Zq0000000EJNA</t>
-  </si>
-  <si>
-    <t>SVMXC__Service_Request__c SR_1 = new SVMXC__Service_Request__c(SVMXC__Status__c = 'Closed', SVMXC__Priority__c = 'High' );insert SR_1 ;</t>
-  </si>
-  <si>
-    <t>001q000000hmj2V</t>
-  </si>
-  <si>
     <t>001q000000PQ0UzAAL</t>
   </si>
   <si>
     <t>a1Jq0000001fK4aEAE</t>
   </si>
   <si>
-    <t>01tq000000081s5AAA</t>
-  </si>
-  <si>
     <t>Case case_2 = new Case (Status = 'Closed' );insert case_2 ;</t>
   </si>
   <si>
@@ -198,6 +174,51 @@
   </si>
   <si>
     <t>a0Nq0000003PV38EAG</t>
+  </si>
+  <si>
+    <t>01tq0000001ku2rAAA</t>
+  </si>
+  <si>
+    <t>0010x000007lC8WAAU</t>
+  </si>
+  <si>
+    <t>0010x000007lC8bAAE</t>
+  </si>
+  <si>
+    <t>01t0x000000KRaEAAW</t>
+  </si>
+  <si>
+    <t>a250x000000S4YeAAK</t>
+  </si>
+  <si>
+    <t>a250x000000S4YjAAK</t>
+  </si>
+  <si>
+    <t>a0T0x0000000iNOEAY</t>
+  </si>
+  <si>
+    <t>a2N0x000000BzKjEAK</t>
+  </si>
+  <si>
+    <t>0010x000007lC9PAAU</t>
+  </si>
+  <si>
+    <t>0010x000007lC9eAAE</t>
+  </si>
+  <si>
+    <t>01t0x000000KRaOAAW</t>
+  </si>
+  <si>
+    <t>a250x000000S4YoAAK</t>
+  </si>
+  <si>
+    <t>a250x000000S4YtAAK</t>
+  </si>
+  <si>
+    <t>a0T0x0000000iNYEAY</t>
+  </si>
+  <si>
+    <t>a2N0x000000BzKoEAK</t>
   </si>
 </sst>
 </file>
@@ -207,7 +228,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -241,6 +262,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -259,7 +287,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="65">
+  <cellStyleXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -325,8 +353,36 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -355,8 +411,11 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="65">
+  <cellStyles count="93">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -389,6 +448,20 @@
     <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -421,6 +494,20 @@
     <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -699,28 +786,29 @@
   <dimension ref="A1:AA6"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="17.83203125" customWidth="1"/>
-    <col min="3" max="3" width="27.1640625" customWidth="1"/>
-    <col min="4" max="4" width="23.1640625" customWidth="1"/>
-    <col min="6" max="6" width="22" customWidth="1"/>
-    <col min="7" max="7" width="38" customWidth="1"/>
-    <col min="11" max="11" width="22.33203125" customWidth="1"/>
-    <col min="12" max="12" width="22" customWidth="1"/>
-    <col min="13" max="13" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23.83203125" customWidth="1"/>
-    <col min="20" max="20" width="24.33203125" customWidth="1"/>
-    <col min="21" max="21" width="13.83203125" customWidth="1"/>
-    <col min="23" max="23" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="23.83203125" customWidth="1"/>
-    <col min="27" max="27" width="23.5" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="17.83203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="27.1640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="23.1640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="38.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="9.6640625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="13.83203125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="11.5" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="23.83203125" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="24.33203125" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="13.83203125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="24" max="25" bestFit="true" customWidth="true" width="19.83203125" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="23.83203125" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="23.5" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="32" x14ac:dyDescent="0.2">
@@ -740,7 +828,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -755,7 +843,7 @@
         <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>9</v>
@@ -779,54 +867,54 @@
         <v>15</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="X1" s="8" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="Y1" s="8" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="128" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>32</v>
+        <v>61</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>59</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>17</v>
@@ -838,7 +926,7 @@
         <v>19</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>20</v>
@@ -862,52 +950,40 @@
         <v>42999</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="W2" s="4">
         <v>42999</v>
       </c>
       <c r="X2" s="9" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="Y2" s="9" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="112" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>26</v>
-      </c>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="1"/>
@@ -916,14 +992,10 @@
       <c r="R3" s="1"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -941,30 +1013,32 @@
     </row>
     <row r="5" spans="1:27" ht="112" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="1"/>
+        <v>60</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="E5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1" t="s">
@@ -986,14 +1060,14 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -1007,10 +1081,10 @@
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
       <c r="Z6" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/svmx/test_lab/test_cases/analytics/an_excleData/MTTC_data.xlsx
+++ b/svmx/test_lab/test_cases/analytics/an_excleData/MTTC_data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="78">
   <si>
     <t>Account</t>
   </si>
@@ -219,6 +219,48 @@
   </si>
   <si>
     <t>a2N0x000000BzKoEAK</t>
+  </si>
+  <si>
+    <t>001q000000lI3GTAA0</t>
+  </si>
+  <si>
+    <t>001q000000lI3GYAA0</t>
+  </si>
+  <si>
+    <t>01tq0000001kvmgAAA</t>
+  </si>
+  <si>
+    <t>a1Jq0000001zAifEAE</t>
+  </si>
+  <si>
+    <t>a1Jq0000001zAikEAE</t>
+  </si>
+  <si>
+    <t>a0Nq0000003Pi3yEAC</t>
+  </si>
+  <si>
+    <t>a1Zq0000001ktWTEAY</t>
+  </si>
+  <si>
+    <t>0010x000007lPr8AAE</t>
+  </si>
+  <si>
+    <t>0010x000007lPs2AAE</t>
+  </si>
+  <si>
+    <t>01t0x000000KVslAAG</t>
+  </si>
+  <si>
+    <t>a250x000000SDeFAAW</t>
+  </si>
+  <si>
+    <t>a250x000000SDeKAAW</t>
+  </si>
+  <si>
+    <t>a0T0x0000000iZdEAI</t>
+  </si>
+  <si>
+    <t>a2N0x000000BzWuEAK</t>
   </si>
 </sst>
 </file>
@@ -896,16 +938,16 @@
     </row>
     <row r="2" spans="1:27" ht="128" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>16</v>
@@ -959,7 +1001,7 @@
         <v>35</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="W2" s="4">
         <v>42999</v>
@@ -1013,16 +1055,16 @@
     </row>
     <row r="5" spans="1:27" ht="112" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>16</v>
@@ -1060,7 +1102,7 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">

--- a/svmx/test_lab/test_cases/analytics/an_excleData/MTTC_data.xlsx
+++ b/svmx/test_lab/test_cases/analytics/an_excleData/MTTC_data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="129">
   <si>
     <t>Account</t>
   </si>
@@ -261,6 +261,159 @@
   </si>
   <si>
     <t>a2N0x000000BzWuEAK</t>
+  </si>
+  <si>
+    <t>001q000000lINsXAAW</t>
+  </si>
+  <si>
+    <t>001q000000lINscAAG</t>
+  </si>
+  <si>
+    <t>01tq0000001kyEJAAY</t>
+  </si>
+  <si>
+    <t>a1Jq0000001zEwTEAU</t>
+  </si>
+  <si>
+    <t>a1Jq0000001zEwYEAU</t>
+  </si>
+  <si>
+    <t>a0Nq0000003PkWpEAK</t>
+  </si>
+  <si>
+    <t>a1Zq0000001ktd0EAA</t>
+  </si>
+  <si>
+    <t>001q000000lIO23AAG</t>
+  </si>
+  <si>
+    <t>001q000000lIO28AAG</t>
+  </si>
+  <si>
+    <t>01tq0000001kyEOAAY</t>
+  </si>
+  <si>
+    <t>a1Jq0000001zEzaEAE</t>
+  </si>
+  <si>
+    <t>a1Jq0000001zEzfEAE</t>
+  </si>
+  <si>
+    <t>a0Nq0000003PkXPEA0</t>
+  </si>
+  <si>
+    <t>a1Zq0000001ktd5EAA</t>
+  </si>
+  <si>
+    <t>001q000000lIOWmAAO</t>
+  </si>
+  <si>
+    <t>001q000000lIOWrAAO</t>
+  </si>
+  <si>
+    <t>01tq0000001kyETAAY</t>
+  </si>
+  <si>
+    <t>a1Jq0000001zF6vEAE</t>
+  </si>
+  <si>
+    <t>a1Jq0000001zF70EAE</t>
+  </si>
+  <si>
+    <t>a0Nq0000003PkXeEAK</t>
+  </si>
+  <si>
+    <t>a1Zq0000001ktdAEAQ</t>
+  </si>
+  <si>
+    <t>001q000000lIOYOAA4</t>
+  </si>
+  <si>
+    <t>001q000000lIOYYAA4</t>
+  </si>
+  <si>
+    <t>01tq0000001kyEYAAY</t>
+  </si>
+  <si>
+    <t>a1Jq0000001zF7KEAU</t>
+  </si>
+  <si>
+    <t>a1Jq0000001zF7PEAU</t>
+  </si>
+  <si>
+    <t>a0Nq0000003PkXtEAK</t>
+  </si>
+  <si>
+    <t>a1Zq0000001ktdFEAQ</t>
+  </si>
+  <si>
+    <t>001q000000lIOatAAG</t>
+  </si>
+  <si>
+    <t>001q000000lIOayAAG</t>
+  </si>
+  <si>
+    <t>01tq0000001kyEdAAI</t>
+  </si>
+  <si>
+    <t>a1Jq0000001zF7jEAE</t>
+  </si>
+  <si>
+    <t>a1Jq0000001zF7oEAE</t>
+  </si>
+  <si>
+    <t>a0Nq0000003PkYIEA0</t>
+  </si>
+  <si>
+    <t>a1Zq0000001ktdKEAQ</t>
+  </si>
+  <si>
+    <t>001q000000lIOcVAAW</t>
+  </si>
+  <si>
+    <t>001q000000lIOcaAAG</t>
+  </si>
+  <si>
+    <t>01tq0000001kyEiAAI</t>
+  </si>
+  <si>
+    <t>a1Jq0000001zF88EAE</t>
+  </si>
+  <si>
+    <t>a1Jq0000001zF8DEAU</t>
+  </si>
+  <si>
+    <t>a0Nq0000003PkYcEAK</t>
+  </si>
+  <si>
+    <t>a1Zq0000001ktdPEAQ</t>
+  </si>
+  <si>
+    <t>001q000000lIOczAAG</t>
+  </si>
+  <si>
+    <t>001q000000lIOd4AAG</t>
+  </si>
+  <si>
+    <t>01tq0000001kyEnAAI</t>
+  </si>
+  <si>
+    <t>a1Jq0000001zF8IEAU</t>
+  </si>
+  <si>
+    <t>a1Jq0000001zF8UEAU</t>
+  </si>
+  <si>
+    <t>a0Nq0000003PkYrEAK</t>
+  </si>
+  <si>
+    <t>a0Nq0000003PkYwEAK</t>
+  </si>
+  <si>
+    <t>a0Nq0000003PkZ1EAK</t>
+  </si>
+  <si>
+    <t>a1Zq0000001ktdUEAQ</t>
   </si>
 </sst>
 </file>
@@ -938,16 +1091,16 @@
     </row>
     <row r="2" spans="1:27" ht="128" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>71</v>
+        <v>120</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>73</v>
+        <v>122</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>76</v>
+        <v>125</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>16</v>
@@ -1001,7 +1154,7 @@
         <v>35</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="W2" s="4">
         <v>42999</v>
@@ -1055,16 +1208,16 @@
     </row>
     <row r="5" spans="1:27" ht="112" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>72</v>
+        <v>121</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>73</v>
+        <v>122</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>16</v>
@@ -1102,7 +1255,7 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>76</v>
+        <v>127</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
